--- a/v3/tablegen/BuiltinTypes.xlsx
+++ b/v3/tablegen/BuiltinTypes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="9000"/>
+    <workbookView windowWidth="28695" windowHeight="14400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>种类</t>
   </si>
@@ -103,16 +103,19 @@
     <t>int</t>
   </si>
   <si>
+    <t>类型表</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>这里的顺序决定加载顺序</t>
+  </si>
+  <si>
     <t>数据表</t>
   </si>
   <si>
     <t>Data</t>
-  </si>
-  <si>
-    <t>类型表</t>
-  </si>
-  <si>
-    <t>Type</t>
   </si>
   <si>
     <t>键值表</t>
@@ -143,8 +146,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -174,6 +177,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -184,6 +195,112 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,120 +313,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -326,13 +329,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,169 +509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,6 +534,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,17 +577,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,30 +593,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,11 +614,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,10 +643,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,7 +655,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,124 +664,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1114,7 +1117,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1340,7 +1343,9 @@
       <c r="G10" s="2">
         <v>1</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" ht="16.5" spans="1:9">
@@ -1351,10 +1356,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>28</v>
@@ -1374,10 +1379,10 @@
         <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>28</v>
@@ -1394,13 +1399,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
@@ -1415,7 +1420,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
@@ -1436,13 +1441,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>11</v>
@@ -1457,13 +1462,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>11</v>
@@ -1478,13 +1483,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>11</v>
